--- a/data_raw/van_norden_aquabio_data_2020-2021.xlsx
+++ b/data_raw/van_norden_aquabio_data_2020-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapeek/Documents/github/van_norden_aquabio/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8B89F-E9AD-904A-9DA8-10A8306FB473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F74300-9C02-0B42-8E7F-C4CF7D498789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="water_quality" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,19 @@
     <sheet name="amphibs" sheetId="3" r:id="rId3"/>
     <sheet name="surveys" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -134,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="326">
   <si>
     <t>Date_YYYY_MM_DD</t>
   </si>
@@ -1445,8 +1457,8 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3133,7 +3145,9 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>117</v>
       </c>
